--- a/PE loop sample 5/Sample A/Unnormalized_Pmax_Sample_5A_5Hz.xlsx
+++ b/PE loop sample 5/Sample A/Unnormalized_Pmax_Sample_5A_5Hz.xlsx
@@ -1,112 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezioa\Desktop\Coding_Projects\Thinfilms &amp; Nanoelectronics\PE loop sample 5\Sample A\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98877DBA-BE4F-4932-AC28-53EC57028D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="330" windowWidth="29010" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>Unnormalized P_max</t>
-  </si>
-  <si>
-    <t>A6_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>A8_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>C3_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>C5_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>D2_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>E3_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>F14_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>F8_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>G4_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>H14_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>I11_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>K11_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>K13_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>M6_Bipolar_10V_5Hz.txt</t>
-  </si>
-  <si>
-    <t>Electrode Location</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,202 +420,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>62.989409999999999</v>
-      </c>
-      <c r="C2" t="str">
-        <f>LEFT(A2,LEN(A2)-20)</f>
-        <v>A6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>59.804110000000001</v>
-      </c>
-      <c r="C3" t="str">
-        <f>LEFT(A3,LEN(A3)-20)</f>
-        <v>A8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>75.740703999999994</v>
-      </c>
-      <c r="C4" t="str">
-        <f>LEFT(A4,LEN(A4)-20)</f>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>62.196112999999997</v>
-      </c>
-      <c r="C5" t="str">
-        <f>LEFT(A5,LEN(A5)-20)</f>
-        <v>C5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>70.787137999999999</v>
-      </c>
-      <c r="C6" t="str">
-        <f>LEFT(A6,LEN(A6)-20)</f>
-        <v>D2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>51.041507000000003</v>
-      </c>
-      <c r="C7" t="str">
-        <f>LEFT(A7,LEN(A7)-20)</f>
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>File Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnormalized P_max</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Electrode Locations</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A6_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>62.98941</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A8_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>59.80411</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C3_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75.74070399999999</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C5_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.196113</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>D2_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>70.787138</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>E3_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>51.041507</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>F8_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>47.573608</v>
       </c>
-      <c r="C8" t="str">
-        <f>LEFT(A8,LEN(A8)-20)</f>
-        <v>F8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>75.478290000000001</v>
-      </c>
-      <c r="C9" t="str">
-        <f>LEFT(A9,LEN(A9)-20)</f>
-        <v>F14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>59.993856000000001</v>
-      </c>
-      <c r="C10" t="str">
-        <f>LEFT(A10,LEN(A10)-20)</f>
-        <v>G4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>78.413286999999997</v>
-      </c>
-      <c r="C11" t="str">
-        <f>LEFT(A11,LEN(A11)-20)</f>
-        <v>H14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>F14_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.47829</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>G4_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59.993856</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>H14_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.413287</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>H14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>I11_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>16.898809</v>
       </c>
-      <c r="C12" t="str">
-        <f>LEFT(A12,LEN(A12)-20)</f>
-        <v>I11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>17.499842999999998</v>
-      </c>
-      <c r="C13" t="str">
-        <f>LEFT(A13,LEN(A13)-20)</f>
-        <v>K11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>8.1417590000000004</v>
-      </c>
-      <c r="C14" t="str">
-        <f>LEFT(A14,LEN(A14)-20)</f>
-        <v>K13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>9.8811119999999999</v>
-      </c>
-      <c r="C15" t="str">
-        <f>LEFT(A15,LEN(A15)-20)</f>
-        <v>M6</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>K11_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17.499843</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>K11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>K13_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8.141759</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>K13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>M6_Bipolar_10V_5Hz.txt</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.881112</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>M6</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition ref="C2:C15" customList="A1,A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,A14,A15,B1,B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14,D15,E1,E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12,E13,E14,E15,F1,F2,F3,F4,F5,F6,F7,F8,F9,F10,F11,F12,F13,F14,F15,G1,G2,G3,G4,G5,G6,G7,G8,G9,G10,G11,G12,G13,G14,G15,H1,H2,H3,H4,H5,H6,H7,H8,H9,H10,H11,H12,H13,H14,H15,I1,I2,I3,I4,I5,I6,I7,I8,I9,I10,I11,I12,I13,I14,I15,J1,J2,J3,J4,J5,J6,J7,J8,J9,J10,J11,J12,J13,J14,J15,K1,K2,K3,K4,K5,K6,K7,K8,K9,K10,K11,K12,K13,K14,K15,L1,L2,L3,L4,L5,L6,L7,L8,L9,L10,L11,L12,L13,L14,L15,M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15,N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>